--- a/Basico/practice-files/Sesión 05/Minigraficos.xlsx
+++ b/Basico/practice-files/Sesión 05/Minigraficos.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BEB0C-D920-4B46-8FCC-CC8016CF4623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12405" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,6 +13,11 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -57,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,9 +238,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,7 +310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,12 +483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="8" customWidth="1"/>
     <col min="2" max="5" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -598,24 +606,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
